--- a/biology/Médecine/Colique_hépatique/Colique_hépatique.xlsx
+++ b/biology/Médecine/Colique_hépatique/Colique_hépatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colique_h%C3%A9patique</t>
+          <t>Colique_hépatique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Une colique hépatique (une douleur qui n'a rien de colique et rien d'hépatique, le nom plus approprié étant "douleur vésiculaire") est un symptôme douloureux ressenti par un patient dans la partie supérieure droite de l'abdomen. Cette douleur est généralement isolée ; elle ne s'accompagne pas de fièvre, d'altération de l'état général ou d'ictère. Elle peut s'accompagner d'une fièvre et d'un ictère dans la triade de charcot ou de villard. C'est une douleur généralement déclenchée par un repas riche en graisse (entrainant une augmentation de la CCK --&gt; contraction vésicule biliaire).
